--- a/INTERMAC/Master 23 инв.№55550075/ТО Master 23 инв.№55550075 на 2022 год.xlsx
+++ b/INTERMAC/Master 23 инв.№55550075/ТО Master 23 инв.№55550075 на 2022 год.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Операторы" sheetId="1" state="visible" r:id="rId2"/>
@@ -546,9 +546,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>2462400</xdr:colOff>
+      <xdr:colOff>2461680</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>5074560</xdr:rowOff>
+      <xdr:rowOff>5073840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -562,7 +562,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8973360" y="2124000"/>
-          <a:ext cx="2331360" cy="5074560"/>
+          <a:ext cx="2330640" cy="5073840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -579,13 +579,13 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>2635920</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>1378800</xdr:rowOff>
+      <xdr:rowOff>1379880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>4979880</xdr:colOff>
+      <xdr:colOff>4979160</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>5069880</xdr:rowOff>
+      <xdr:rowOff>5070240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -598,8 +598,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm rot="16207800">
-          <a:off x="10112760" y="3484440"/>
-          <a:ext cx="5074560" cy="2343960"/>
+          <a:off x="10112760" y="3485520"/>
+          <a:ext cx="5073840" cy="2343240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -620,9 +620,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>5074560</xdr:colOff>
+      <xdr:colOff>5073840</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>2343960</xdr:rowOff>
+      <xdr:rowOff>2343240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -636,7 +636,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8842320" y="7203600"/>
-          <a:ext cx="5074560" cy="2343960"/>
+          <a:ext cx="5073840" cy="2343240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -657,9 +657,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>5074560</xdr:colOff>
+      <xdr:colOff>5073840</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>2331360</xdr:rowOff>
+      <xdr:rowOff>2330640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -673,7 +673,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8842320" y="9635400"/>
-          <a:ext cx="5074560" cy="2331360"/>
+          <a:ext cx="5073840" cy="2330640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -694,9 +694,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>5074560</xdr:colOff>
+      <xdr:colOff>5073840</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>2343960</xdr:rowOff>
+      <xdr:rowOff>2343240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -709,8 +709,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8842320" y="14504040"/>
-          <a:ext cx="5074560" cy="2343960"/>
+          <a:off x="8842320" y="16956360"/>
+          <a:ext cx="5073840" cy="2343240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -731,9 +731,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>5074560</xdr:colOff>
+      <xdr:colOff>5073840</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>2343960</xdr:rowOff>
+      <xdr:rowOff>2343240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -746,8 +746,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8842320" y="16894080"/>
-          <a:ext cx="5074560" cy="2343960"/>
+          <a:off x="8842320" y="19346400"/>
+          <a:ext cx="5073840" cy="2343240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -768,9 +768,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>5077080</xdr:colOff>
+      <xdr:colOff>5076360</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>2381040</xdr:rowOff>
+      <xdr:rowOff>2380320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -784,7 +784,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8842320" y="12092040"/>
-          <a:ext cx="5077080" cy="2346480"/>
+          <a:ext cx="5076360" cy="2345760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -805,9 +805,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>2347560</xdr:colOff>
+      <xdr:colOff>2346840</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>5078160</xdr:rowOff>
+      <xdr:rowOff>5077440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -820,8 +820,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8842320" y="19284480"/>
-          <a:ext cx="2347560" cy="5078160"/>
+          <a:off x="8842320" y="21736800"/>
+          <a:ext cx="2346840" cy="5077440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -842,9 +842,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>4930560</xdr:colOff>
+      <xdr:colOff>4929840</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>5103360</xdr:rowOff>
+      <xdr:rowOff>5102640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -857,8 +857,45 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11425320" y="19309680"/>
-          <a:ext cx="2347560" cy="5078160"/>
+          <a:off x="11425320" y="21762000"/>
+          <a:ext cx="2346840" cy="5077440"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2710440</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>2446560</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>5064480</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>4795200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Изображение 24" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId10"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8827560" y="14504040"/>
+          <a:ext cx="5079240" cy="2348640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -884,13 +921,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>5074560</xdr:colOff>
+      <xdr:colOff>5073840</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>2505600</xdr:rowOff>
+      <xdr:rowOff>2504880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Изображение 9" descr=""/>
+        <xdr:cNvPr id="10" name="Изображение 9" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -900,7 +937,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7881480" y="9199080"/>
-          <a:ext cx="5074560" cy="2458080"/>
+          <a:ext cx="5073840" cy="2457360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -921,13 +958,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>3661200</xdr:colOff>
+      <xdr:colOff>3660480</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>30600</xdr:rowOff>
+      <xdr:rowOff>29880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Изображение 10" descr=""/>
+        <xdr:cNvPr id="11" name="Изображение 10" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -937,7 +974,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9198720" y="11809440"/>
-          <a:ext cx="2343960" cy="5074560"/>
+          <a:ext cx="2343240" cy="5073840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -958,13 +995,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>5074560</xdr:colOff>
+      <xdr:colOff>5073840</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>1440</xdr:rowOff>
+      <xdr:rowOff>720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Изображение 11" descr=""/>
+        <xdr:cNvPr id="12" name="Изображение 11" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -973,8 +1010,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7881480" y="21778560"/>
-          <a:ext cx="5074560" cy="2343960"/>
+          <a:off x="7881480" y="24239880"/>
+          <a:ext cx="5073840" cy="2343240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -995,13 +1032,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>5074560</xdr:colOff>
+      <xdr:colOff>5073840</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>2391480</xdr:rowOff>
+      <xdr:rowOff>2390760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Изображение 15" descr=""/>
+        <xdr:cNvPr id="13" name="Изображение 15" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1010,8 +1047,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7881480" y="30371400"/>
-          <a:ext cx="5074560" cy="2343960"/>
+          <a:off x="7881480" y="32832720"/>
+          <a:ext cx="5073840" cy="2343240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1032,13 +1069,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>5074560</xdr:colOff>
+      <xdr:colOff>5073840</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>33120</xdr:rowOff>
+      <xdr:rowOff>32760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="Изображение 16" descr=""/>
+        <xdr:cNvPr id="14" name="Изображение 16" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1047,8 +1084,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7881480" y="32814360"/>
-          <a:ext cx="5074560" cy="2343960"/>
+          <a:off x="7881480" y="35275680"/>
+          <a:ext cx="5073840" cy="2343240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1064,18 +1101,18 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>47880</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>47520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>5074560</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>12240</xdr:rowOff>
+      <xdr:colOff>5073840</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>21600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="Изображение 18" descr=""/>
+        <xdr:cNvPr id="15" name="Изображение 19" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1084,8 +1121,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7881480" y="16901280"/>
-          <a:ext cx="5074560" cy="2343960"/>
+          <a:off x="7881480" y="37633680"/>
+          <a:ext cx="5073840" cy="2343240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1100,19 +1137,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>47520</xdr:rowOff>
+      <xdr:colOff>7560</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>120960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>5074560</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>22320</xdr:rowOff>
+      <xdr:colOff>5081040</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>2464200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="Изображение 19" descr=""/>
+        <xdr:cNvPr id="16" name="Изображение 7" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1121,8 +1158,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7881480" y="35172720"/>
-          <a:ext cx="5074560" cy="2343960"/>
+          <a:off x="7889040" y="1566720"/>
+          <a:ext cx="5073480" cy="2343240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1137,19 +1174,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>7560</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>120960</xdr:rowOff>
+      <xdr:colOff>5400</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>64800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>5081760</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>2464920</xdr:rowOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>2410560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="Изображение 7" descr=""/>
+        <xdr:cNvPr id="17" name="Изображение 6" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1158,8 +1195,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7889040" y="1566720"/>
-          <a:ext cx="5074200" cy="2343960"/>
+          <a:off x="7886880" y="21759120"/>
+          <a:ext cx="5076360" cy="2345760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1174,19 +1211,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>5400</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>64800</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>47520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>5082480</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>2411280</xdr:rowOff>
+      <xdr:colOff>5076360</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>2393280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="Изображение 6" descr=""/>
+        <xdr:cNvPr id="18" name="Изображение 13" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1195,8 +1232,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7886880" y="19297800"/>
-          <a:ext cx="5077080" cy="2346480"/>
+          <a:off x="7881480" y="30368880"/>
+          <a:ext cx="5076360" cy="2345760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1211,19 +1248,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>47520</xdr:rowOff>
+      <xdr:colOff>1311840</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>65160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>5077080</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>2394000</xdr:rowOff>
+      <xdr:colOff>3619800</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>3668400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="Изображение 13" descr=""/>
+        <xdr:cNvPr id="19" name="Изображение 12" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1232,8 +1269,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7881480" y="27907560"/>
-          <a:ext cx="5077080" cy="2346480"/>
+          <a:off x="9193320" y="26647560"/>
+          <a:ext cx="2307960" cy="3603240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1248,19 +1285,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1311840</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>65160</xdr:rowOff>
+      <xdr:colOff>1383480</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>186120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>3620520</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>3669120</xdr:rowOff>
+      <xdr:colOff>3691440</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>3789360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="Изображение 12" descr=""/>
+        <xdr:cNvPr id="20" name="Изображение 17" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1269,8 +1306,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9193320" y="24186240"/>
-          <a:ext cx="2308680" cy="3603960"/>
+          <a:off x="9264960" y="40141440"/>
+          <a:ext cx="2307960" cy="3603240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1285,19 +1322,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1383480</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>186120</xdr:rowOff>
+      <xdr:colOff>23760</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>61920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>3692160</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>3790080</xdr:rowOff>
+      <xdr:colOff>5097600</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>2405160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="Изображение 17" descr=""/>
+        <xdr:cNvPr id="21" name="Изображение 20" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1306,8 +1343,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9264960" y="37680480"/>
-          <a:ext cx="2308680" cy="3603960"/>
+          <a:off x="7905240" y="4092120"/>
+          <a:ext cx="5073840" cy="2343240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1322,19 +1359,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>23760</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>61920</xdr:rowOff>
+      <xdr:colOff>10800</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>90000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>5098320</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>2405880</xdr:rowOff>
+      <xdr:colOff>5086080</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>2437560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="Изображение 20" descr=""/>
+        <xdr:cNvPr id="22" name="Изображение 23" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1343,8 +1380,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7905240" y="4092120"/>
-          <a:ext cx="5074560" cy="2343960"/>
+          <a:off x="7892280" y="6704640"/>
+          <a:ext cx="5075280" cy="2347560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1359,19 +1396,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>10800</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>90000</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>5086800</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>2438280</xdr:rowOff>
+      <xdr:colOff>5079600</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>2349000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="22" name="Изображение 23" descr=""/>
+        <xdr:cNvPr id="23" name="Изображение 18" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1380,8 +1417,45 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7892280" y="6704640"/>
-          <a:ext cx="5076000" cy="2348280"/>
+          <a:off x="7881480" y="16853400"/>
+          <a:ext cx="5079600" cy="2349000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>2473200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>16560</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>4822200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Изображение 25" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId15"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7927200" y="19326600"/>
+          <a:ext cx="5079600" cy="2349000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1403,8 +1477,8 @@
   </sheetPr>
   <dimension ref="A1:E1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A5" colorId="64" zoomScale="65" zoomScaleNormal="100" zoomScalePageLayoutView="65" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A10" colorId="64" zoomScale="65" zoomScaleNormal="100" zoomScalePageLayoutView="65" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G7" activeCellId="0" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="29.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1488,7 +1562,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="192.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="385.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="n">
         <f aca="false">A6+1</f>
         <v>4</v>
@@ -1588,8 +1662,8 @@
   </sheetPr>
   <dimension ref="A1:E1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A10" colorId="64" zoomScale="65" zoomScaleNormal="100" zoomScalePageLayoutView="65" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A8" colorId="64" zoomScale="65" zoomScaleNormal="100" zoomScalePageLayoutView="65" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="29.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1707,7 +1781,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="187.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="381.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="9" t="n">
         <f aca="false">A8+1</f>
         <v>5</v>
@@ -2652,7 +2726,7 @@
   </sheetPr>
   <dimension ref="A1:AG48"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="55" zoomScalePageLayoutView="65" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="55" zoomScalePageLayoutView="65" workbookViewId="0">
       <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
     </sheetView>
   </sheetViews>
